--- a/設計書/基本設計/ユーザー登録/ユーザー登録.xlsx
+++ b/設計書/基本設計/ユーザー登録/ユーザー登録.xlsx
@@ -4,20 +4,434 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
-    <sheet name="アクション" sheetId="2" r:id="rId2"/>
-    <sheet name="処理" sheetId="3" r:id="rId3"/>
+    <sheet name="処理" sheetId="3" r:id="rId2"/>
+    <sheet name="フォーム概要" sheetId="4" r:id="rId3"/>
+    <sheet name="利用データベース" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理概要</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録処理</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了ボタン押下時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各インプットタグの値(正常時)</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての値が正常だった場合は、ユーザー情報をapp_userマスタに新規登録し、</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティー情報を更新した上でタスク画面へ遷移させる。</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各インプットタグの値(異常時)</t>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプットの値(苗字・名前・メールアドレス・パスワード)に異常値が検出されると、</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面へ再度遷移し、異常のある項目ごとにエラーメッセージを表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面リンク押下時</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム値詳細</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック概要</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苗字</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列型</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値に何も指定されてない場合、値がブランクの場合は異常値として扱う。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値がメールアドレス形式(xxxxxx@xxx)形式でない場合には異常値として扱う。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列型</t>
+    <rPh sb="0" eb="4">
+      <t>モジレツカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの値と違う値が入っていた場合には異常値として扱う。</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>イジョウチ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>READ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パスワードの暗号化</t>
+    <rPh sb="7" eb="10">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　パスワードはデータベースに登録される時に暗号化した値を挿入する</t>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +446,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -49,12 +479,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -70,6 +637,575 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="200025" y="809625"/>
+          <a:ext cx="9572625" cy="6286500"/>
+          <a:chOff x="219075" y="171450"/>
+          <a:chExt cx="10058400" cy="6286500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="グループ化 13"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="219075" y="171450"/>
+            <a:ext cx="10058400" cy="6286500"/>
+            <a:chOff x="133350" y="76200"/>
+            <a:chExt cx="10058400" cy="6286500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="図 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="133350" y="76200"/>
+              <a:ext cx="10058400" cy="6286500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="6096000" y="581025"/>
+              <a:ext cx="1080000" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="5534025" y="2095500"/>
+              <a:ext cx="1080000" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="2143125"/>
+              <a:ext cx="1133475" cy="323850"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="5905500" y="5724525"/>
+              <a:ext cx="1080000" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7162800" y="304800"/>
+              <a:ext cx="1323975" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ロゴ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6600825" y="1743075"/>
+              <a:ext cx="1323975" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>エラーメッセージ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2000250" y="1838325"/>
+              <a:ext cx="1323975" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>入力欄</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6972300" y="5448300"/>
+              <a:ext cx="1323975" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>登録完了ボタン</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="グループ化 24"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="885825" y="4476750"/>
+            <a:ext cx="1343025" cy="1819275"/>
+            <a:chOff x="619125" y="4391025"/>
+            <a:chExt cx="1343025" cy="1819275"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="1285875" y="4905375"/>
+              <a:ext cx="0" cy="1080000"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="23" name="グループ化 22"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="619125" y="4391025"/>
+              <a:ext cx="1343025" cy="1819275"/>
+              <a:chOff x="619125" y="4391025"/>
+              <a:chExt cx="1343025" cy="1819275"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="638175" y="4391025"/>
+                <a:ext cx="1323975" cy="504825"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>ログイン画面へのリンク</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="619125" y="5972175"/>
+                <a:ext cx="1333500" cy="238125"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="0070C0"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ログイン画面</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,25 +1495,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AQ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="44" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="4"/>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+      <c r="AQ5" s="7"/>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ6" s="10"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="AQ7" s="10"/>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ8" s="10"/>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ9" s="10"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="AQ10" s="10"/>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ11" s="10"/>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ12" s="10"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="AQ13" s="10"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="AQ14" s="10"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ15" s="10"/>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="AQ16" s="10"/>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="Q17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ17" s="10"/>
+    </row>
+    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ18" s="10"/>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="AQ19" s="12"/>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="7"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="10"/>
+    </row>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -385,12 +1998,790 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AQ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="44" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="4"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="AQ7" s="7"/>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ8" s="10"/>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="12"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="AQ10" s="7"/>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ11" s="10"/>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="12"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="AQ13" s="10"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="P14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ14" s="10"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="AQ15" s="10"/>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="P16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ16" s="10"/>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="12"/>
+    </row>
+    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="AQ18" s="10"/>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="P19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ19" s="10"/>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="10"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="7"/>
+    </row>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="10"/>
+    </row>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="10"/>
+    </row>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="P24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ24" s="10"/>
+    </row>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="26" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/設計書/基本設計/ユーザー登録/ユーザー登録.xlsx
+++ b/設計書/基本設計/ユーザー登録/ユーザー登録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -1497,7 +1497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1520,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2000,9 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/設計書/基本設計/ユーザー登録/ユーザー登録.xlsx
+++ b/設計書/基本設計/ユーザー登録/ユーザー登録.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
@@ -423,6 +423,139 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1) ログイン画面リンク</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　押下されるとログイン画面へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2) ユーザー登録</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　押下されると入力欄の値の内容を解析し</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　内容によって処理が分岐する。</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　成功した場合はユーザー情報がデータベスに</t>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　登録され、タスクホーム画面に遷移。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　失敗した場合は登録画面に遷移しなおし、</t>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　問題があった入力欄のか所の要素</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　にエラーメッセージが表示される。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -643,8 +776,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -1003,7 +1136,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6972300" y="5448300"/>
-              <a:ext cx="1323975" cy="504825"/>
+              <a:ext cx="1488004" cy="504825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1035,6 +1168,18 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>(2)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>  </a:t>
+              </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
                 <a:t>登録完了ボタン</a:t>
@@ -1144,6 +1289,18 @@
               <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
               <a:lstStyle/>
               <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(1)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                  <a:t> </a:t>
+                </a:r>
                 <a:r>
                   <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
                   <a:t>ログイン画面へのリンク</a:t>
@@ -1495,20 +1652,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:Q16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="16" max="16" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
